--- a/src/Images/vide.xlsx
+++ b/src/Images/vide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Agazaty\src\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\مشروع التخرج\Agazaty\src\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB19478C-2E88-4933-A88E-02DCAAFB4CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEAFCC-B90C-49C8-9E9C-644C3EB6BC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,75 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>SecondName</t>
-  </si>
-  <si>
-    <t>ThirdName</t>
-  </si>
-  <si>
-    <t>ForthName</t>
-  </si>
-  <si>
-    <t>DateOfBirth (yyyy-mm-dd)</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>HireDate (yyyy-mm-dd)</t>
-  </si>
-  <si>
-    <t>NationalID</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Departement_ID</t>
-  </si>
-  <si>
-    <t>Disability (نعم/لا)</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Governorate</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>NormalLeavesCount</t>
-  </si>
-  <si>
-    <t>CasualLeavesCount</t>
-  </si>
-  <si>
-    <t>NonChronicSickLeavesCount</t>
-  </si>
-  <si>
-    <t>NormalLeavesCount_47</t>
-  </si>
-  <si>
-    <t>NormalLeavesCount_81Before3Years</t>
-  </si>
-  <si>
-    <t>NormalLeavesCount_81Before2Years</t>
-  </si>
-  <si>
-    <t>NormalLeavesCount_81Before1Years</t>
-  </si>
-  <si>
-    <t>HowManyDaysFrom81And47</t>
-  </si>
-  <si>
-    <t>RoleName</t>
-  </si>
-  <si>
     <t>اسم المستخدم</t>
   </si>
   <si>
@@ -101,13 +32,82 @@
   </si>
   <si>
     <t>كلمة المرور</t>
+  </si>
+  <si>
+    <t>الاسم الأول</t>
+  </si>
+  <si>
+    <t>الاسم الثاني</t>
+  </si>
+  <si>
+    <t>الاسم الثالث</t>
+  </si>
+  <si>
+    <t>الاسم الرابع</t>
+  </si>
+  <si>
+    <t>تاريخ الميلاد</t>
+  </si>
+  <si>
+    <t>الجنس</t>
+  </si>
+  <si>
+    <t>تاريخ التعيين</t>
+  </si>
+  <si>
+    <t>الرقم القومي</t>
+  </si>
+  <si>
+    <t>الدرجة</t>
+  </si>
+  <si>
+    <t>القسم</t>
+  </si>
+  <si>
+    <t>إعاقة</t>
+  </si>
+  <si>
+    <t>الشارع</t>
+  </si>
+  <si>
+    <t>محافظة</t>
+  </si>
+  <si>
+    <t>مدينة</t>
+  </si>
+  <si>
+    <t>عددالإجازات الأعتيادية</t>
+  </si>
+  <si>
+    <t>عدد الإجازات العارضة</t>
+  </si>
+  <si>
+    <t>عدد الإجازات المرضية الغير مزمنة</t>
+  </si>
+  <si>
+    <t>عدد الإجازات الاعتيادية_47</t>
+  </si>
+  <si>
+    <t>عدد الإجازات الاعتيادية_81 قبل 3 سنوات</t>
+  </si>
+  <si>
+    <t>عدد الإجازات الاعتيادية_81 قبل سنتين</t>
+  </si>
+  <si>
+    <t>عدد الإجازات الاعتيادية_81 قبل سنة</t>
+  </si>
+  <si>
+    <t>عدد الأيام المأخوذة هذه السنة من47 و 81</t>
+  </si>
+  <si>
+    <t>المنصب</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +141,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -165,11 +177,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +490,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,85 +501,85 @@
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
